--- a/UserInterface/Scripts/GUI_Matrix_DSX.xlsx
+++ b/UserInterface/Scripts/GUI_Matrix_DSX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducth\Downloads\DSX_GIT\UserInterface\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducth\Downloads\DSX_Projects_T6_ALL\UserInterface\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9621AC44-1957-4864-8CF9-389C68C60F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1677B41E-C881-464A-B7B3-DD34696190B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="1000" xr2:uid="{8D68E08B-6EC2-4A82-8712-659C61C6461D}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="968">
   <si>
     <t>Name</t>
   </si>
@@ -3409,6 +3409,9 @@
   </si>
   <si>
     <t>DIVEMAINMENU_SLATES | DIVEMAINMENU_SWITCHBO2CC</t>
+  </si>
+  <si>
+    <t>DEVICE_BLUETOOTH_DOWNLOAD_DATA</t>
   </si>
 </sst>
 </file>
@@ -7705,12 +7708,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D5B278-CBE0-43F3-B3AA-B358EBAAD2E9}">
-  <dimension ref="A1:Q494"/>
+  <dimension ref="A1:Q495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2260" activePane="bottomLeft"/>
+      <pane ySplit="2260" topLeftCell="A143" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:L2"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10130,7 +10133,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>44</v>
+        <v>967</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>248</v>
@@ -10138,7 +10141,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>248</v>
@@ -10146,52 +10149,39 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>45</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>46</v>
       </c>
-      <c r="J158" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L158" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A159" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>801</v>
-      </c>
       <c r="J159" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K159" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M159" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="N159" s="3" t="s">
-        <v>323</v>
+      <c r="L159" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>801</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>248</v>
@@ -10201,37 +10191,37 @@
       </c>
       <c r="M160" s="10" t="s">
         <v>248</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K161" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M161" s="3" t="s">
+      <c r="K161" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M161" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
+        <v>319</v>
+      </c>
       <c r="J162" s="3" t="s">
         <v>248</v>
       </c>
@@ -10244,18 +10234,15 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>800</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
       <c r="J163" s="3" t="s">
         <v>248</v>
       </c>
@@ -10268,14 +10255,17 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="61" t="s">
-        <v>476</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>800</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>248</v>
@@ -10289,17 +10279,14 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="61" t="s">
         <v>476</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="H165" s="3" t="s">
-        <v>803</v>
+      <c r="F165" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>248</v>
@@ -10309,47 +10296,60 @@
       </c>
       <c r="M165" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="N165" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
-        <v>693</v>
+        <v>49</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A167" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="B167" s="8"/>
+      <c r="C167" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="G167" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="J166" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K166" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M166" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N166" s="3"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>191</v>
-      </c>
       <c r="J167" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L167" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="K167" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N167" s="3"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="J168" s="3" t="s">
         <v>248</v>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J169" s="3" t="s">
         <v>248</v>
@@ -10371,65 +10371,65 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>51</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>52</v>
       </c>
-      <c r="J170" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L170" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A171" s="46" t="s">
+      <c r="J171" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A172" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B171" s="46"/>
-      <c r="J171" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A172" s="44" t="s">
+      <c r="B172" s="46"/>
+      <c r="J172" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A173" s="44" t="s">
         <v>694</v>
       </c>
-      <c r="B172" s="44"/>
-      <c r="J172" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N172" t="s">
+      <c r="B173" s="44"/>
+      <c r="J173" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N173" t="s">
         <v>700</v>
       </c>
-      <c r="O172" s="38" t="str">
-        <f>A184</f>
+      <c r="O173" s="38" t="str">
+        <f>A185</f>
         <v>MAINDISPLAY_EXTRALARGE_SET</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>55</v>
-      </c>
-      <c r="J174" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L174" s="3" t="s">
-        <v>248</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J175" s="3" t="s">
         <v>248</v>
@@ -10440,173 +10440,164 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>56</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>57</v>
       </c>
-      <c r="J176" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L176" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A177" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B177" s="28"/>
-      <c r="C177" s="61" t="s">
-        <v>467</v>
-      </c>
       <c r="J177" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K177" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M177" s="3" t="s">
+      <c r="L177" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B178" s="28"/>
       <c r="C178" s="61" t="s">
-        <v>192</v>
+        <v>467</v>
       </c>
       <c r="J178" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L178" s="3" t="s">
+      <c r="K178" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M178" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="28" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="B179" s="28"/>
       <c r="C179" s="61" t="s">
-        <v>468</v>
+        <v>192</v>
       </c>
       <c r="J179" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K179" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M179" s="3" t="s">
+      <c r="L179" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B180" s="28"/>
       <c r="C180" s="61" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
       <c r="J180" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L180" s="3" t="s">
+      <c r="K180" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M180" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B181" s="28"/>
       <c r="C181" s="61" t="s">
-        <v>467</v>
+        <v>58</v>
       </c>
       <c r="J181" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K181" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M181" s="3" t="s">
+      <c r="L181" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B182" s="28"/>
       <c r="C182" s="61" t="s">
-        <v>60</v>
+        <v>467</v>
       </c>
       <c r="J182" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L182" s="3" t="s">
+      <c r="K182" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M182" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B183" s="28"/>
       <c r="C183" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A184" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B184" s="28"/>
+      <c r="C184" s="61" t="s">
         <v>469</v>
       </c>
-      <c r="J183" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K183" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M183" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A184" s="44" t="s">
+      <c r="J184" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A185" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B184" s="44"/>
-      <c r="C184" s="61" t="s">
+      <c r="B185" s="44"/>
+      <c r="C185" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="J184" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L184" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>245</v>
-      </c>
-      <c r="C185" s="61" t="s">
-        <v>516</v>
-      </c>
       <c r="J185" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K185" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="L185" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M185" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="C186" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J186" s="3" t="s">
         <v>248</v>
@@ -10623,10 +10614,10 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C187" s="61" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J187" s="3" t="s">
         <v>248</v>
@@ -10643,10 +10634,10 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C188" s="61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J188" s="3" t="s">
         <v>248</v>
@@ -10663,10 +10654,10 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C189" s="61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J189" s="3" t="s">
         <v>248</v>
@@ -10683,10 +10674,10 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C190" s="61" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J190" s="3" t="s">
         <v>248</v>
@@ -10703,18 +10694,27 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>576</v>
+        <v>68</v>
+      </c>
+      <c r="C191" s="61" t="s">
+        <v>521</v>
       </c>
       <c r="J191" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="K191" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="L191" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M191" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J192" s="3" t="s">
         <v>248</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J193" s="3" t="s">
         <v>248</v>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J194" s="3" t="s">
         <v>248</v>
@@ -10747,51 +10747,47 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>579</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>580</v>
       </c>
-      <c r="J195" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="J196" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>581</v>
       </c>
-      <c r="J196" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L196" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A197" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="B197" s="15"/>
-      <c r="C197" s="61" t="s">
-        <v>564</v>
-      </c>
       <c r="J197" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M197" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B198" s="15"/>
       <c r="C198" s="61" t="s">
-        <v>568</v>
+        <v>564</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>248</v>
@@ -10802,11 +10798,11 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B199" s="15"/>
       <c r="C199" s="61" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>248</v>
@@ -10817,11 +10813,11 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B200" s="15"/>
       <c r="C200" s="61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>248</v>
@@ -10832,11 +10828,11 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B201" s="15"/>
       <c r="C201" s="61" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>248</v>
@@ -10847,28 +10843,26 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B202" s="15"/>
       <c r="C202" s="61" t="s">
+        <v>574</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M202" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A203" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B203" s="15"/>
+      <c r="C203" s="61" t="s">
         <v>575</v>
-      </c>
-      <c r="L202" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M202" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>534</v>
-      </c>
-      <c r="C203" s="63" t="s">
-        <v>565</v>
-      </c>
-      <c r="J203" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>248</v>
@@ -10879,10 +10873,13 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C204" s="63" t="s">
-        <v>569</v>
+        <v>565</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>248</v>
@@ -10893,10 +10890,10 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C205" s="63" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="L205" s="3" t="s">
         <v>248</v>
@@ -10907,10 +10904,10 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C206" s="63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>248</v>
@@ -10921,10 +10918,10 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C207" s="63" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L207" s="3" t="s">
         <v>248</v>
@@ -10935,28 +10932,24 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
+        <v>538</v>
+      </c>
+      <c r="C208" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>539</v>
       </c>
-      <c r="C208" s="63" t="s">
+      <c r="C209" s="63" t="s">
         <v>585</v>
-      </c>
-      <c r="L208" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M208" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A209" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="B209" s="15"/>
-      <c r="C209" s="61" t="s">
-        <v>566</v>
-      </c>
-      <c r="J209" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="L209" s="3" t="s">
         <v>248</v>
@@ -10967,11 +10960,14 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B210" s="15"/>
       <c r="C210" s="61" t="s">
-        <v>570</v>
+        <v>566</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="L210" s="3" t="s">
         <v>248</v>
@@ -10982,11 +10978,11 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B211" s="15"/>
       <c r="C211" s="61" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>248</v>
@@ -10997,11 +10993,11 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B212" s="15"/>
       <c r="C212" s="61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L212" s="3" t="s">
         <v>248</v>
@@ -11012,11 +11008,11 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B213" s="15"/>
       <c r="C213" s="61" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L213" s="3" t="s">
         <v>248</v>
@@ -11027,28 +11023,26 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B214" s="15"/>
       <c r="C214" s="61" t="s">
+        <v>588</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A215" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="B215" s="15"/>
+      <c r="C215" s="61" t="s">
         <v>589</v>
-      </c>
-      <c r="L214" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M214" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>546</v>
-      </c>
-      <c r="C215" s="63" t="s">
-        <v>567</v>
-      </c>
-      <c r="J215" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="L215" s="3" t="s">
         <v>248</v>
@@ -11059,10 +11053,13 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C216" s="63" t="s">
-        <v>571</v>
+        <v>567</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="L216" s="3" t="s">
         <v>248</v>
@@ -11073,10 +11070,10 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C217" s="63" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="L217" s="3" t="s">
         <v>248</v>
@@ -11087,10 +11084,10 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C218" s="63" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L218" s="3" t="s">
         <v>248</v>
@@ -11101,10 +11098,10 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C219" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L219" s="3" t="s">
         <v>248</v>
@@ -11115,28 +11112,24 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>550</v>
+      </c>
+      <c r="C220" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>551</v>
       </c>
-      <c r="C220" s="63" t="s">
+      <c r="C221" s="63" t="s">
         <v>593</v>
-      </c>
-      <c r="L220" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M220" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A221" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="B221" s="15"/>
-      <c r="C221" s="61" t="s">
-        <v>594</v>
-      </c>
-      <c r="J221" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="L221" s="3" t="s">
         <v>248</v>
@@ -11147,11 +11140,14 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B222" s="15"/>
       <c r="C222" s="61" t="s">
-        <v>595</v>
+        <v>594</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="L222" s="3" t="s">
         <v>248</v>
@@ -11162,11 +11158,11 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B223" s="15"/>
       <c r="C223" s="61" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L223" s="3" t="s">
         <v>248</v>
@@ -11177,11 +11173,11 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B224" s="15"/>
       <c r="C224" s="61" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L224" s="3" t="s">
         <v>248</v>
@@ -11190,13 +11186,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B225" s="15"/>
       <c r="C225" s="61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L225" s="3" t="s">
         <v>248</v>
@@ -11205,140 +11201,136 @@
         <v>248</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B226" s="15"/>
       <c r="C226" s="61" t="s">
+        <v>598</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A227" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B227" s="15"/>
+      <c r="C227" s="61" t="s">
         <v>599</v>
       </c>
-      <c r="L226" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M226" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+      <c r="L227" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>558</v>
       </c>
-      <c r="C227" s="64" t="s">
+      <c r="C228" s="64" t="s">
         <v>600</v>
       </c>
-      <c r="J227" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L227" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M227" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+      <c r="J228" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>559</v>
       </c>
-      <c r="C228" s="64" t="s">
+      <c r="C229" s="64" t="s">
         <v>601</v>
       </c>
-      <c r="L228" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M228" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+      <c r="L229" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>560</v>
       </c>
-      <c r="C229" s="64" t="s">
+      <c r="C230" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="L229" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M229" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+      <c r="L230" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>561</v>
       </c>
-      <c r="C230" s="64" t="s">
+      <c r="C231" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="L230" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M230" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+      <c r="L231" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>562</v>
       </c>
-      <c r="C231" s="64" t="s">
+      <c r="C232" s="64" t="s">
         <v>604</v>
       </c>
-      <c r="L231" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M231" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+      <c r="L232" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>563</v>
       </c>
-      <c r="C232" s="64" t="s">
+      <c r="C233" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="L232" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M232" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="38" t="s">
+      <c r="L233" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C233" s="65" t="s">
+      <c r="C234" s="65" t="s">
         <v>900</v>
       </c>
-      <c r="D233" s="39"/>
-      <c r="E233" s="39"/>
-      <c r="F233" s="39"/>
-      <c r="G233" s="39"/>
-      <c r="H233" s="39"/>
-      <c r="I233" s="39"/>
-      <c r="J233" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="K233" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L233" s="39"/>
-      <c r="M233" s="39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A234" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B234" s="38"/>
-      <c r="C234" s="61" t="s">
-        <v>510</v>
-      </c>
+      <c r="D234" s="39"/>
+      <c r="E234" s="39"/>
+      <c r="F234" s="39"/>
+      <c r="G234" s="39"/>
+      <c r="H234" s="39"/>
+      <c r="I234" s="39"/>
       <c r="J234" s="39" t="s">
         <v>248</v>
       </c>
@@ -11350,13 +11342,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B235" s="38"/>
       <c r="C235" s="61" t="s">
-        <v>900</v>
+        <v>510</v>
       </c>
       <c r="J235" s="39" t="s">
         <v>248</v>
@@ -11369,13 +11361,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="38" t="s">
-        <v>898</v>
+        <v>196</v>
       </c>
       <c r="B236" s="38"/>
       <c r="C236" s="61" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J236" s="39" t="s">
         <v>248</v>
@@ -11388,98 +11380,106 @@
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A237" s="45" t="s">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A237" s="38" t="s">
+        <v>898</v>
+      </c>
+      <c r="B237" s="38"/>
+      <c r="C237" s="61" t="s">
+        <v>901</v>
+      </c>
+      <c r="J237" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K237" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L237" s="39"/>
+      <c r="M237" s="39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A238" s="45" t="s">
         <v>768</v>
-      </c>
-      <c r="B237" s="38"/>
-      <c r="J237" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A238" s="45" t="s">
-        <v>197</v>
       </c>
       <c r="B238" s="38"/>
       <c r="J238" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B239" s="38"/>
       <c r="J239" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="45" t="s">
-        <v>899</v>
+        <v>198</v>
       </c>
       <c r="B240" s="38"/>
       <c r="J240" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="O240" s="38" t="s">
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A241" s="45" t="s">
+        <v>899</v>
+      </c>
+      <c r="B241" s="38"/>
+      <c r="J241" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O241" s="38" t="s">
         <v>873</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A241" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J241" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L241" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N241" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="15" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="J242" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L242" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="N242" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J243" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L243" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="N243" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J244" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L244" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="N244" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J245" s="3" t="s">
         <v>248</v>
@@ -11490,79 +11490,79 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A247" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J246" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L246" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A247" s="44" t="s">
-        <v>866</v>
-      </c>
       <c r="J247" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L247" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="N247" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="44" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="J248" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L248" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="N248" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="44" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J249" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L249" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="N249" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="44" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J250" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L250" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="N250" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="44" t="s">
+        <v>871</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A252" s="44" t="s">
         <v>872</v>
-      </c>
-      <c r="J251" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L251" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="15" t="s">
-        <v>879</v>
       </c>
       <c r="J252" s="3" t="s">
         <v>248</v>
@@ -11573,7 +11573,7 @@
     </row>
     <row r="253" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="15" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J253" s="3" t="s">
         <v>248</v>
@@ -11584,18 +11584,18 @@
     </row>
     <row r="254" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="15" t="s">
+        <v>880</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="15" t="s">
         <v>881</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L254" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="44" t="s">
-        <v>882</v>
       </c>
       <c r="J255" s="3" t="s">
         <v>248</v>
@@ -11606,24 +11606,18 @@
     </row>
     <row r="256" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="44" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J256" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L256" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="N256" t="s">
-        <v>885</v>
-      </c>
-      <c r="O256" s="38" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="257" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="44" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J257" s="3" t="s">
         <v>248</v>
@@ -11635,29 +11629,29 @@
         <v>885</v>
       </c>
       <c r="O257" s="38" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="44" t="s">
+        <v>884</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N258" t="s">
+        <v>885</v>
+      </c>
+      <c r="O258" s="38" t="s">
         <v>881</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>199</v>
-      </c>
-      <c r="C258" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="J258" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K258" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M258" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="C259" s="61" t="s">
         <v>75</v>
@@ -11674,10 +11668,10 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
+        <v>74</v>
+      </c>
+      <c r="C260" s="61" t="s">
         <v>75</v>
-      </c>
-      <c r="C260" s="61" t="s">
-        <v>433</v>
       </c>
       <c r="J260" s="3" t="s">
         <v>248</v>
@@ -11691,30 +11685,30 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>684</v>
-      </c>
-      <c r="K261" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="C261" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M261" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>685</v>
-      </c>
-      <c r="J262" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K262" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="L262" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M262" s="3" t="s">
-        <v>479</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="K262" s="10"/>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J263" s="3" t="s">
         <v>248</v>
@@ -11731,7 +11725,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J264" s="3" t="s">
         <v>248</v>
@@ -11748,7 +11742,7 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J265" s="3" t="s">
         <v>248</v>
@@ -11765,7 +11759,7 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J266" s="3" t="s">
         <v>248</v>
@@ -11782,7 +11776,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>799</v>
+        <v>689</v>
       </c>
       <c r="J267" s="3" t="s">
         <v>248</v>
@@ -11799,48 +11793,48 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>76</v>
+        <v>799</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K268" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="L268" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M268" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>769</v>
-      </c>
-      <c r="J269" s="3" t="s">
-        <v>248</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
+        <v>769</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
         <v>863</v>
       </c>
-      <c r="J270" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A271" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C271" s="61" t="s">
-        <v>386</v>
-      </c>
       <c r="J271" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K271" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M271" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C272" s="61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J272" s="3" t="s">
         <v>248</v>
@@ -11854,34 +11848,28 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C273" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M273" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A274" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C273" s="61" t="s">
+      <c r="C274" s="61" t="s">
         <v>388</v>
       </c>
-      <c r="J273" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K273" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M273" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A274" s="48" t="s">
-        <v>707</v>
-      </c>
-      <c r="C274" s="71" t="s">
-        <v>718</v>
-      </c>
-      <c r="D274" s="72"/>
-      <c r="E274" s="72"/>
-      <c r="F274" s="72"/>
-      <c r="G274" s="72"/>
-      <c r="H274" s="72"/>
-      <c r="I274" s="72"/>
       <c r="J274" s="3" t="s">
         <v>248</v>
       </c>
@@ -11894,10 +11882,10 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275" s="48" t="s">
-        <v>202</v>
+        <v>707</v>
       </c>
       <c r="C275" s="71" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D275" s="72"/>
       <c r="E275" s="72"/>
@@ -11917,10 +11905,10 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C276" s="71" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D276" s="72"/>
       <c r="E276" s="72"/>
@@ -11940,18 +11928,14 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277" s="48" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C277" s="71" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D277" s="72"/>
-      <c r="E277" s="71" t="s">
-        <v>914</v>
-      </c>
-      <c r="F277" s="71" t="s">
-        <v>914</v>
-      </c>
+      <c r="E277" s="72"/>
+      <c r="F277" s="72"/>
       <c r="G277" s="72"/>
       <c r="H277" s="72"/>
       <c r="I277" s="72"/>
@@ -11967,14 +11951,18 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C278" s="71" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D278" s="72"/>
-      <c r="E278" s="71"/>
-      <c r="F278" s="72"/>
+      <c r="E278" s="71" t="s">
+        <v>914</v>
+      </c>
+      <c r="F278" s="71" t="s">
+        <v>914</v>
+      </c>
       <c r="G278" s="72"/>
       <c r="H278" s="72"/>
       <c r="I278" s="72"/>
@@ -11990,18 +11978,14 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279" s="48" t="s">
-        <v>717</v>
+        <v>79</v>
       </c>
       <c r="C279" s="71" t="s">
-        <v>720</v>
-      </c>
-      <c r="D279" s="71"/>
-      <c r="E279" s="71" t="s">
-        <v>915</v>
-      </c>
-      <c r="F279" s="71" t="s">
-        <v>915</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="D279" s="72"/>
+      <c r="E279" s="71"/>
+      <c r="F279" s="72"/>
       <c r="G279" s="72"/>
       <c r="H279" s="72"/>
       <c r="I279" s="72"/>
@@ -12016,19 +12000,35 @@
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A280" s="44" t="s">
-        <v>721</v>
-      </c>
+      <c r="A280" s="48" t="s">
+        <v>717</v>
+      </c>
+      <c r="C280" s="71" t="s">
+        <v>720</v>
+      </c>
+      <c r="D280" s="71"/>
+      <c r="E280" s="71" t="s">
+        <v>915</v>
+      </c>
+      <c r="F280" s="71" t="s">
+        <v>915</v>
+      </c>
+      <c r="G280" s="72"/>
+      <c r="H280" s="72"/>
+      <c r="I280" s="72"/>
       <c r="J280" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L280" s="3" t="s">
+      <c r="K280" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M280" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281" s="44" t="s">
-        <v>81</v>
+        <v>721</v>
       </c>
       <c r="J281" s="3" t="s">
         <v>248</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J282" s="3" t="s">
         <v>248</v>
@@ -12050,7 +12050,7 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J283" s="3" t="s">
         <v>248</v>
@@ -12061,103 +12061,103 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A285" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="J284" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L284" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="49" t="s">
+      <c r="J285" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="49" t="s">
         <v>722</v>
       </c>
-      <c r="J285" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N285" s="20" t="s">
+      <c r="J286" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N286" s="20" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A286" s="49" t="s">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A287" s="49" t="s">
         <v>723</v>
       </c>
-      <c r="J286" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N286" t="s">
+      <c r="J287" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N287" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="J287" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N287" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="49" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="J288" s="3" t="s">
         <v>248</v>
       </c>
       <c r="N288" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
     </row>
     <row r="289" spans="1:15" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="49" t="s">
+        <v>748</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N289" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="49" t="s">
         <v>750</v>
       </c>
-      <c r="J289" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N289" t="s">
+      <c r="J290" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N290" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A290" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="J290" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N290" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" s="49" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="J291" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="N291" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="49" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J292" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="O292" s="38" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="49" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J293" s="3" t="s">
         <v>248</v>
@@ -12168,7 +12168,7 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="49" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J294" s="3" t="s">
         <v>248</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J295" s="3" t="s">
         <v>248</v>
@@ -12190,7 +12190,7 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" s="49" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J296" s="3" t="s">
         <v>248</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J297" s="3" t="s">
         <v>248</v>
@@ -12212,7 +12212,7 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" s="49" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J298" s="3" t="s">
         <v>248</v>
@@ -12223,26 +12223,26 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" s="49" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J299" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="O299" s="38" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" s="49" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J300" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="O300" s="38" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="49" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J301" s="3" t="s">
         <v>248</v>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J302" s="3" t="s">
         <v>248</v>
@@ -12264,7 +12264,7 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" s="49" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J303" s="3" t="s">
         <v>248</v>
@@ -12275,7 +12275,7 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" s="49" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J304" s="3" t="s">
         <v>248</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" s="49" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J305" s="3" t="s">
         <v>248</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" s="49" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J306" s="3" t="s">
         <v>248</v>
@@ -12308,159 +12308,159 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" s="49" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J307" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="O307" s="38" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="J308" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A309" s="49" t="s">
         <v>747</v>
       </c>
-      <c r="J308" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
+      <c r="J309" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A310" s="15" t="s">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A311" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B310" s="15"/>
-      <c r="J310" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L310" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>205</v>
-      </c>
+      <c r="B311" s="15"/>
       <c r="J311" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L311" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>84</v>
+        <v>205</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A316" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B316" s="8"/>
-      <c r="C316" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="J316" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K316" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M316" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="B317" s="8"/>
+      <c r="C317" s="61" t="s">
+        <v>303</v>
+      </c>
       <c r="J317" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L317" s="3" t="s">
+      <c r="K317" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M317" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B318" s="8"/>
-      <c r="C318" s="61" t="s">
-        <v>305</v>
-      </c>
       <c r="J318" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K318" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M318" s="3" t="s">
+      <c r="L318" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B319" s="8"/>
+      <c r="C319" s="61" t="s">
+        <v>305</v>
+      </c>
       <c r="J319" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L319" s="3" t="s">
+      <c r="K319" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M319" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B320" s="8"/>
-      <c r="C320" s="61" t="s">
-        <v>304</v>
-      </c>
       <c r="J320" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K320" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M320" s="3" t="s">
+      <c r="L320" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B321" s="8"/>
+      <c r="C321" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M321" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A322" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B321" s="8"/>
-      <c r="J321" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L321" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>93</v>
-      </c>
+      <c r="B322" s="8"/>
       <c r="J322" s="3" t="s">
         <v>248</v>
       </c>
@@ -12470,7 +12470,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J323" s="3" t="s">
         <v>248</v>
@@ -12481,175 +12481,169 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>208</v>
-      </c>
-      <c r="C324" s="61" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J324" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K324" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M324" s="3" t="s">
+      <c r="L324" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>95</v>
+        <v>208</v>
+      </c>
+      <c r="C325" s="61" t="s">
+        <v>96</v>
       </c>
       <c r="J325" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L325" s="3" t="s">
+      <c r="K325" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M325" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>96</v>
-      </c>
-      <c r="C326" s="61" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="J326" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K326" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M326" s="3" t="s">
+      <c r="L326" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="C327" s="61" t="s">
+        <v>208</v>
       </c>
       <c r="J327" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L327" s="3" t="s">
+      <c r="K327" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M327" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>209</v>
-      </c>
-      <c r="C328" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J328" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K328" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M328" s="3" t="s">
+      <c r="L328" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>98</v>
+        <v>209</v>
+      </c>
+      <c r="C329" s="61" t="s">
+        <v>99</v>
       </c>
       <c r="J329" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L329" s="3" t="s">
+      <c r="K329" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M329" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>99</v>
-      </c>
-      <c r="C330" s="61" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="J330" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K330" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M330" s="3" t="s">
+      <c r="L330" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C331" s="61" t="s">
+        <v>209</v>
       </c>
       <c r="J331" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L331" s="3" t="s">
+      <c r="K331" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M331" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>101</v>
-      </c>
-      <c r="C332" s="61" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="J332" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L332" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M332" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
+        <v>101</v>
+      </c>
+      <c r="C333" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="C333" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="K333" s="3" t="s">
+      <c r="J333" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L333" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M333" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C334" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="J334" s="3" t="s">
-        <v>248</v>
+        <v>101</v>
       </c>
       <c r="K334" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="M334" s="3" t="s">
+      <c r="L334" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="C335" s="61" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="J335" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L335" s="3" t="s">
+      <c r="K335" s="3" t="s">
         <v>248</v>
       </c>
       <c r="M335" s="3" t="s">
@@ -12658,46 +12652,46 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
+        <v>102</v>
+      </c>
+      <c r="C336" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C336" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="K336" s="3" t="s">
+      <c r="J336" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L336" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M336" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="C337" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="J337" s="3" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="K337" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="M337" s="3" t="s">
+      <c r="L337" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="C338" s="61" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="J338" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L338" s="3" t="s">
+      <c r="K338" s="3" t="s">
         <v>248</v>
       </c>
       <c r="M338" s="3" t="s">
@@ -12706,135 +12700,131 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
+        <v>104</v>
+      </c>
+      <c r="C339" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C339" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="K339" s="3" t="s">
+      <c r="J339" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L339" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M339" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C340" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="J340" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K340" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L340" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M340" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
+        <v>106</v>
+      </c>
+      <c r="C341" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="C341" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="K341" s="3" t="s">
+      <c r="J341" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L341" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M341" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="C342" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="J342" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K342" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L342" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M342" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
+        <v>107</v>
+      </c>
+      <c r="C343" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C343" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="K343" s="3" t="s">
+      <c r="J343" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L343" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M343" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="C344" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="J344" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K344" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L344" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M344" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
+        <v>108</v>
+      </c>
+      <c r="C345" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C345" s="61" t="s">
+      <c r="J345" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L345" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M345" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>215</v>
+      </c>
+      <c r="C346" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="K345" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L345" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="346" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="31" t="s">
+      <c r="K346" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L346" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="31" t="s">
         <v>109</v>
-      </c>
-      <c r="B346" s="31"/>
-      <c r="C346" s="66" t="s">
-        <v>471</v>
-      </c>
-      <c r="J346" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K346" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="L346" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N346" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A347" s="31" t="s">
-        <v>216</v>
       </c>
       <c r="B347" s="31"/>
       <c r="C347" s="66" t="s">
@@ -12843,229 +12833,238 @@
       <c r="J347" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="K347" s="32" t="s">
+        <v>248</v>
+      </c>
       <c r="L347" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="N347" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" s="31" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B348" s="31"/>
-      <c r="C348" s="67" t="s">
-        <v>472</v>
+      <c r="C348" s="66" t="s">
+        <v>471</v>
       </c>
       <c r="J348" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K348" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="L348" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="N348" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B349" s="31"/>
+      <c r="C349" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K349" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L349" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N349" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A350" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B349" s="31"/>
-      <c r="C349" s="61" t="s">
+      <c r="B350" s="31"/>
+      <c r="C350" s="61" t="s">
         <v>472</v>
       </c>
-      <c r="J349" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L349" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="28" t="s">
+      <c r="J350" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L350" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C350" s="64" t="s">
+      <c r="C351" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="D350" s="30"/>
-      <c r="E350" s="30"/>
-      <c r="F350" s="30" t="s">
+      <c r="D351" s="30"/>
+      <c r="E351" s="30"/>
+      <c r="F351" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="G350" s="30" t="s">
+      <c r="G351" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="H350" s="30" t="s">
+      <c r="H351" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="I350" s="30"/>
-      <c r="J350" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K350" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="L350" s="24"/>
-      <c r="M350" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="O350" s="38"/>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>112</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L351" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="I351" s="30"/>
+      <c r="J351" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K351" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="L351" s="24"/>
+      <c r="M351" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="O351" s="38"/>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
+        <v>112</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L352" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
         <v>113</v>
       </c>
-      <c r="J352" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L352" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="353" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="28" t="s">
+      <c r="J353" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L353" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C353" s="64" t="s">
+      <c r="C354" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="D353" s="30"/>
-      <c r="E353" s="30"/>
-      <c r="F353" s="30" t="s">
+      <c r="D354" s="30"/>
+      <c r="E354" s="30"/>
+      <c r="F354" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="G353" s="30" t="s">
+      <c r="G354" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="H353" s="30" t="s">
+      <c r="H354" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="I353" s="30"/>
-      <c r="J353" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K353" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="L353" s="24"/>
-      <c r="M353" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="O353" s="38"/>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
+      <c r="I354" s="30"/>
+      <c r="J354" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K354" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="L354" s="24"/>
+      <c r="M354" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="O354" s="38"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
         <v>114</v>
       </c>
-      <c r="J354" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L354" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="355" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="28" t="s">
+      <c r="J355" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L355" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C355" s="64" t="s">
+      <c r="C356" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="D355" s="30"/>
-      <c r="E355" s="30"/>
-      <c r="F355" s="30"/>
-      <c r="G355" s="30"/>
-      <c r="H355" s="30"/>
-      <c r="I355" s="30"/>
-      <c r="J355" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K355" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="L355" s="24"/>
-      <c r="M355" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="O355" s="38"/>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>115</v>
-      </c>
-      <c r="J356" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L356" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="D356" s="30"/>
+      <c r="E356" s="30"/>
+      <c r="F356" s="30"/>
+      <c r="G356" s="30"/>
+      <c r="H356" s="30"/>
+      <c r="I356" s="30"/>
+      <c r="J356" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K356" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="L356" s="24"/>
+      <c r="M356" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="O356" s="38"/>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
+        <v>115</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L357" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
         <v>116</v>
       </c>
-      <c r="J357" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L357" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="358" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="28" t="s">
+      <c r="J358" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L358" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B358" s="28"/>
-      <c r="C358" s="68" t="s">
+      <c r="B359" s="28"/>
+      <c r="C359" s="68" t="s">
         <v>494</v>
       </c>
-      <c r="D358" s="24"/>
-      <c r="E358" s="24"/>
-      <c r="F358" s="24"/>
-      <c r="G358" s="24"/>
-      <c r="H358" s="24"/>
-      <c r="I358" s="24"/>
-      <c r="J358" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K358" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="L358" s="24"/>
-      <c r="M358" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="O358" s="38"/>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A359" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B359" s="28"/>
-      <c r="J359" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L359" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="D359" s="24"/>
+      <c r="E359" s="24"/>
+      <c r="F359" s="24"/>
+      <c r="G359" s="24"/>
+      <c r="H359" s="24"/>
+      <c r="I359" s="24"/>
+      <c r="J359" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K359" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="L359" s="24"/>
+      <c r="M359" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="O359" s="38"/>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B360" s="28"/>
       <c r="J360" s="3" t="s">
@@ -13075,47 +13074,47 @@
         <v>248</v>
       </c>
     </row>
-    <row r="361" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B361" s="28"/>
+      <c r="J361" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L361" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B361" s="28"/>
-      <c r="C361" s="68" t="s">
+      <c r="B362" s="28"/>
+      <c r="C362" s="68" t="s">
         <v>495</v>
       </c>
-      <c r="D361" s="24"/>
-      <c r="E361" s="24"/>
-      <c r="F361" s="24"/>
-      <c r="G361" s="24"/>
-      <c r="H361" s="24"/>
-      <c r="I361" s="24"/>
-      <c r="J361" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K361" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="L361" s="24"/>
-      <c r="M361" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="O361" s="38"/>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A362" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B362" s="28"/>
-      <c r="J362" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L362" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="D362" s="24"/>
+      <c r="E362" s="24"/>
+      <c r="F362" s="24"/>
+      <c r="G362" s="24"/>
+      <c r="H362" s="24"/>
+      <c r="I362" s="24"/>
+      <c r="J362" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K362" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="L362" s="24"/>
+      <c r="M362" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="O362" s="38"/>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B363" s="28"/>
       <c r="J363" s="3" t="s">
@@ -13125,106 +13124,107 @@
         <v>248</v>
       </c>
     </row>
-    <row r="364" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B364" s="28"/>
+      <c r="J364" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L364" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B364" s="28"/>
-      <c r="C364" s="68" t="s">
+      <c r="B365" s="28"/>
+      <c r="C365" s="68" t="s">
         <v>494</v>
       </c>
-      <c r="D364" s="24"/>
-      <c r="E364" s="24"/>
-      <c r="F364" s="24"/>
-      <c r="G364" s="24"/>
-      <c r="H364" s="24"/>
-      <c r="I364" s="24"/>
-      <c r="J364" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K364" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="L364" s="24"/>
-      <c r="M364" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="O364" s="38"/>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A365" s="28" t="s">
+      <c r="D365" s="24"/>
+      <c r="E365" s="24"/>
+      <c r="F365" s="24"/>
+      <c r="G365" s="24"/>
+      <c r="H365" s="24"/>
+      <c r="I365" s="24"/>
+      <c r="J365" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K365" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="L365" s="24"/>
+      <c r="M365" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="O365" s="38"/>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A366" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B365" s="28"/>
-      <c r="J365" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L365" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="366" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A366" s="28" t="s">
-        <v>493</v>
-      </c>
       <c r="B366" s="28"/>
-      <c r="C366" s="68" t="s">
-        <v>496</v>
-      </c>
-      <c r="D366" s="24"/>
-      <c r="E366" s="24"/>
-      <c r="F366" s="24"/>
-      <c r="G366" s="24"/>
-      <c r="H366" s="24"/>
-      <c r="I366" s="24"/>
-      <c r="J366" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="K366" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="L366" s="24"/>
-      <c r="M366" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="O366" s="38"/>
+      <c r="J366" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L366" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="367" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A367" s="28" t="s">
-        <v>692</v>
+        <v>493</v>
       </c>
       <c r="B367" s="28"/>
-      <c r="C367" s="68"/>
+      <c r="C367" s="68" t="s">
+        <v>496</v>
+      </c>
       <c r="D367" s="24"/>
       <c r="E367" s="24"/>
       <c r="F367" s="24"/>
       <c r="G367" s="24"/>
       <c r="H367" s="24"/>
       <c r="I367" s="24"/>
-      <c r="J367" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K367" s="3"/>
-      <c r="L367" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M367" s="24"/>
+      <c r="J367" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K367" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="L367" s="24"/>
+      <c r="M367" s="24" t="s">
+        <v>248</v>
+      </c>
       <c r="O367" s="38"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>222</v>
-      </c>
+    <row r="368" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="B368" s="28"/>
+      <c r="C368" s="68"/>
+      <c r="D368" s="24"/>
+      <c r="E368" s="24"/>
+      <c r="F368" s="24"/>
+      <c r="G368" s="24"/>
+      <c r="H368" s="24"/>
+      <c r="I368" s="24"/>
       <c r="J368" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="K368" s="3"/>
       <c r="L368" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="M368" s="24"/>
+      <c r="O368" s="38"/>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>702</v>
+        <v>222</v>
       </c>
       <c r="J369" s="3" t="s">
         <v>248</v>
@@ -13235,83 +13235,86 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>223</v>
+        <v>702</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="L370" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="O370" s="38" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="L371" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O371" s="38" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>225</v>
-      </c>
-      <c r="L372" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="O372" s="38" t="s">
-        <v>704</v>
+        <v>224</v>
       </c>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
+        <v>225</v>
+      </c>
+      <c r="L373" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O373" s="38" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A374" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B374" s="31"/>
-      <c r="C374" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="J374" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K374" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M374" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B375" s="31"/>
       <c r="C375" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="J375" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K375" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M375" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A376" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B376" s="31"/>
+      <c r="C376" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="J375" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K375" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M375" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A376" t="s">
-        <v>228</v>
-      </c>
       <c r="J376" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K376" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M376" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="J377" s="3" t="s">
         <v>248</v>
@@ -13319,7 +13322,7 @@
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J378" s="3" t="s">
         <v>248</v>
@@ -13327,44 +13330,44 @@
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
+        <v>124</v>
+      </c>
+      <c r="J379" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
         <v>230</v>
       </c>
-      <c r="J379" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L379" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A380" s="15" t="s">
+      <c r="J380" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L380" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A381" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="B380" s="15"/>
-      <c r="C380" s="61" t="s">
+      <c r="B381" s="15"/>
+      <c r="C381" s="61" t="s">
         <v>690</v>
       </c>
-      <c r="J380" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K380" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M380" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
-        <v>125</v>
-      </c>
       <c r="J381" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K381" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M381" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>248</v>
@@ -13372,230 +13375,224 @@
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L383" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J384" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="N384" t="s">
-        <v>691</v>
+      <c r="L384" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J385" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L385" s="3" t="s">
-        <v>248</v>
+      <c r="N385" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
+        <v>129</v>
+      </c>
+      <c r="J386" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L386" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
         <v>130</v>
       </c>
-      <c r="J386" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A387" s="15" t="s">
+      <c r="J387" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A388" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B387" s="15"/>
-      <c r="C387" s="61" t="s">
+      <c r="B388" s="15"/>
+      <c r="C388" s="61" t="s">
         <v>805</v>
       </c>
-      <c r="J387" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K387" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M387" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="388" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
+      <c r="J388" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K388" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M388" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
         <v>132</v>
       </c>
-      <c r="J388" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L388" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>231</v>
-      </c>
       <c r="J389" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L389" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
+        <v>231</v>
+      </c>
+      <c r="J390" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A391" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="C391" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="J391" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K391" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M391" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C392" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="C392" s="61" t="s">
+      <c r="J392" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K392" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M392" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A393" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="C393" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="J392" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K392" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M392" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A393" t="s">
+      <c r="J393" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K393" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M393" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
         <v>234</v>
       </c>
-      <c r="J393" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A394" s="15" t="s">
+      <c r="J394" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A395" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B394" s="15"/>
-      <c r="C394" s="61" t="s">
+      <c r="B395" s="15"/>
+      <c r="C395" s="61" t="s">
         <v>806</v>
       </c>
-      <c r="J394" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K394" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M394" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A395" t="s">
-        <v>235</v>
-      </c>
       <c r="J395" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L395" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="O395" s="38" t="s">
-        <v>132</v>
+      <c r="K395" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M395" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="L396" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O396" s="38" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
+        <v>135</v>
+      </c>
+      <c r="J397" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
         <v>136</v>
       </c>
-      <c r="J397" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A398" s="51" t="s">
-        <v>770</v>
-      </c>
       <c r="J398" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L398" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399" s="51" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="J399" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L399" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="N399" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400" s="51" t="s">
+        <v>790</v>
+      </c>
+      <c r="J400" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L400" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N400" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A401" s="51" t="s">
         <v>792</v>
       </c>
-      <c r="J400" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L400" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A401" t="s">
-        <v>771</v>
-      </c>
       <c r="J401" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L401" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="N401" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J402" s="3" t="s">
         <v>248</v>
@@ -13603,13 +13600,13 @@
       <c r="L402" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="O402" s="38" t="s">
-        <v>778</v>
+      <c r="N402" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J403" s="3" t="s">
         <v>248</v>
@@ -13618,62 +13615,62 @@
         <v>248</v>
       </c>
       <c r="O403" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J404" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L404" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="O404" s="38" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J405" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L405" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="O405" s="38" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
+        <v>775</v>
+      </c>
+      <c r="J406" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L406" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O406" s="38" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
         <v>776</v>
       </c>
-      <c r="J406" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L406" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A407" s="51" t="s">
-        <v>777</v>
-      </c>
       <c r="J407" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L407" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="N407" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408" s="51" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J408" s="3" t="s">
         <v>248</v>
@@ -13682,12 +13679,12 @@
         <v>248</v>
       </c>
       <c r="N408" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409" s="51" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J409" s="3" t="s">
         <v>248</v>
@@ -13696,12 +13693,12 @@
         <v>248</v>
       </c>
       <c r="N409" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410" s="51" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J410" s="3" t="s">
         <v>248</v>
@@ -13710,12 +13707,12 @@
         <v>248</v>
       </c>
       <c r="N410" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411" s="51" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J411" s="3" t="s">
         <v>248</v>
@@ -13724,37 +13721,40 @@
         <v>248</v>
       </c>
       <c r="N411" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412" s="51" t="s">
+        <v>781</v>
+      </c>
+      <c r="J412" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L412" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N412" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A413" s="51" t="s">
         <v>782</v>
       </c>
-      <c r="J412" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L412" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N412" t="s">
+      <c r="J413" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L413" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N413" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A413" t="s">
-        <v>784</v>
-      </c>
-      <c r="J413" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L413" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J414" s="3" t="s">
         <v>248</v>
@@ -13765,7 +13765,7 @@
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J415" s="3" t="s">
         <v>248</v>
@@ -13776,7 +13776,7 @@
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J416" s="3" t="s">
         <v>248</v>
@@ -13787,7 +13787,7 @@
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J417" s="3" t="s">
         <v>248</v>
@@ -13798,18 +13798,18 @@
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
+        <v>788</v>
+      </c>
+      <c r="J418" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L418" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
         <v>789</v>
-      </c>
-      <c r="J418" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L418" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A419" s="51" t="s">
-        <v>783</v>
       </c>
       <c r="J419" s="3" t="s">
         <v>248</v>
@@ -13820,68 +13820,44 @@
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420" s="51" t="s">
+        <v>783</v>
+      </c>
+      <c r="J420" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A421" s="51" t="s">
         <v>887</v>
       </c>
-      <c r="J420" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L420" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="O420" s="38" t="s">
+      <c r="J421" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O421" s="38" t="s">
         <v>790</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A421" s="52" t="s">
-        <v>826</v>
-      </c>
-      <c r="C421" s="61" t="s">
-        <v>830</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="F421" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="I421" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="J421" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K421" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M421" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="N421" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422" s="52" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C422" s="61" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="G422" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="H422" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="I422" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="J422" s="3" t="s">
         <v>248</v>
@@ -13893,15 +13869,30 @@
         <v>248</v>
       </c>
       <c r="N422" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423" s="52" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C423" s="61" t="s">
-        <v>830</v>
+        <v>852</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="I423" s="3" t="s">
+        <v>964</v>
       </c>
       <c r="J423" s="3" t="s">
         <v>248</v>
@@ -13913,69 +13904,64 @@
         <v>248</v>
       </c>
       <c r="N423" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424" s="52" t="s">
+        <v>829</v>
+      </c>
+      <c r="C424" s="61" t="s">
+        <v>830</v>
+      </c>
+      <c r="J424" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K424" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M424" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="N424" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A425" s="52" t="s">
         <v>831</v>
       </c>
-      <c r="C424" s="61" t="s">
+      <c r="C425" s="61" t="s">
         <v>832</v>
       </c>
-      <c r="D424" s="3" t="s">
+      <c r="D425" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="G424" s="3" t="s">
+      <c r="G425" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="H424" s="3" t="s">
+      <c r="H425" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="J424" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K424" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M424" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="N424" t="s">
+      <c r="J425" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K425" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M425" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="N425" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="425" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A425" s="55" t="s">
-        <v>835</v>
-      </c>
-      <c r="C425" s="69" t="s">
-        <v>841</v>
-      </c>
-      <c r="D425" s="57"/>
-      <c r="E425" s="57"/>
-      <c r="F425" s="57"/>
-      <c r="G425" s="57"/>
-      <c r="H425" s="57"/>
-      <c r="I425" s="57"/>
-      <c r="J425" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K425" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="L425" s="3"/>
-      <c r="M425" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O425" s="58"/>
     </row>
     <row r="426" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A426" s="55" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C426" s="69" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D426" s="57"/>
       <c r="E426" s="57"/>
@@ -13997,14 +13983,17 @@
     </row>
     <row r="427" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A427" s="55" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C427" s="69" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="D427" s="57"/>
       <c r="E427" s="57"/>
       <c r="F427" s="57"/>
+      <c r="G427" s="57"/>
+      <c r="H427" s="57"/>
+      <c r="I427" s="57"/>
       <c r="J427" s="3" t="s">
         <v>248</v>
       </c>
@@ -14019,17 +14008,14 @@
     </row>
     <row r="428" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A428" s="55" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C428" s="69" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D428" s="57"/>
       <c r="E428" s="57"/>
       <c r="F428" s="57"/>
-      <c r="G428" s="57"/>
-      <c r="H428" s="57"/>
-      <c r="I428" s="57"/>
       <c r="J428" s="3" t="s">
         <v>248</v>
       </c>
@@ -14042,26 +14028,34 @@
       </c>
       <c r="O428" s="58"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A429" s="55" t="s">
-        <v>957</v>
-      </c>
-      <c r="C429" s="61" t="s">
-        <v>827</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="C429" s="69" t="s">
+        <v>837</v>
+      </c>
+      <c r="D429" s="57"/>
+      <c r="E429" s="57"/>
+      <c r="F429" s="57"/>
+      <c r="G429" s="57"/>
+      <c r="H429" s="57"/>
+      <c r="I429" s="57"/>
       <c r="J429" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K429" s="10" t="s">
         <v>248</v>
       </c>
+      <c r="L429" s="3"/>
       <c r="M429" s="10" t="s">
         <v>248</v>
       </c>
+      <c r="O429" s="58"/>
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430" s="55" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C430" s="61" t="s">
         <v>827</v>
@@ -14077,47 +14071,49 @@
       </c>
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A431" s="56" t="s">
+      <c r="A431" s="55" t="s">
+        <v>963</v>
+      </c>
+      <c r="C431" s="61" t="s">
+        <v>827</v>
+      </c>
+      <c r="J431" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K431" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M431" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A432" s="56" t="s">
         <v>895</v>
       </c>
-      <c r="J431" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K431" s="10"/>
-      <c r="L431" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M431" s="10"/>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A432" s="70" t="s">
+      <c r="J432" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K432" s="10"/>
+      <c r="L432" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M432" s="10"/>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A433" s="70" t="s">
         <v>896</v>
       </c>
-      <c r="J432" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K432" s="10"/>
-      <c r="M432" s="10"/>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A433" s="59" t="s">
-        <v>846</v>
-      </c>
       <c r="J433" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K433" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="M433" s="10" t="s">
-        <v>479</v>
-      </c>
+      <c r="K433" s="10"/>
+      <c r="M433" s="10"/>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434" s="59" t="s">
-        <v>845</v>
-      </c>
-      <c r="D434" s="6"/>
+        <v>846</v>
+      </c>
       <c r="J434" s="3" t="s">
         <v>248</v>
       </c>
@@ -14130,7 +14126,7 @@
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435" s="59" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D435" s="6"/>
       <c r="J435" s="3" t="s">
@@ -14145,8 +14141,9 @@
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436" s="59" t="s">
-        <v>848</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="D436" s="6"/>
       <c r="J436" s="3" t="s">
         <v>248</v>
       </c>
@@ -14159,9 +14156,8 @@
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437" s="59" t="s">
-        <v>849</v>
-      </c>
-      <c r="D437" s="6"/>
+        <v>848</v>
+      </c>
       <c r="J437" s="3" t="s">
         <v>248</v>
       </c>
@@ -14174,7 +14170,7 @@
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438" s="59" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D438" s="6"/>
       <c r="J438" s="3" t="s">
@@ -14189,8 +14185,9 @@
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439" s="59" t="s">
-        <v>851</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="D439" s="6"/>
       <c r="J439" s="3" t="s">
         <v>248</v>
       </c>
@@ -14202,21 +14199,22 @@
       </c>
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A440" s="60" t="s">
-        <v>854</v>
+      <c r="A440" s="59" t="s">
+        <v>851</v>
       </c>
       <c r="J440" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K440" s="10"/>
-      <c r="L440" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="M440" s="10"/>
+      <c r="K440" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="M440" s="10" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441" s="60" t="s">
-        <v>902</v>
+        <v>854</v>
       </c>
       <c r="J441" s="3" t="s">
         <v>248</v>
@@ -14226,13 +14224,10 @@
         <v>248</v>
       </c>
       <c r="M441" s="10"/>
-      <c r="O441" s="38" t="s">
-        <v>854</v>
-      </c>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442" s="60" t="s">
-        <v>855</v>
+        <v>902</v>
       </c>
       <c r="J442" s="3" t="s">
         <v>248</v>
@@ -14242,10 +14237,13 @@
         <v>248</v>
       </c>
       <c r="M442" s="10"/>
+      <c r="O442" s="38" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A443" s="60" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J443" s="3" t="s">
         <v>248</v>
@@ -14256,86 +14254,88 @@
       </c>
       <c r="M443" s="10"/>
     </row>
-    <row r="444" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A444" t="s">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A444" s="60" t="s">
+        <v>856</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K444" s="10"/>
+      <c r="L444" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M444" s="10"/>
+    </row>
+    <row r="445" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
         <v>272</v>
       </c>
-      <c r="M444" s="10"/>
-    </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A445" t="s">
-        <v>284</v>
-      </c>
+      <c r="M445" s="10"/>
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="456" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A456" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="457" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>912</v>
-      </c>
-      <c r="J457" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L457" s="3" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
     </row>
     <row r="458" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="J458" s="3" t="s">
         <v>248</v>
@@ -14346,7 +14346,7 @@
     </row>
     <row r="459" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J459" s="3" t="s">
         <v>248</v>
@@ -14357,7 +14357,7 @@
     </row>
     <row r="460" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J460" s="3" t="s">
         <v>248</v>
@@ -14368,7 +14368,7 @@
     </row>
     <row r="461" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J461" s="3" t="s">
         <v>248</v>
@@ -14379,7 +14379,7 @@
     </row>
     <row r="462" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>943</v>
+        <v>909</v>
       </c>
       <c r="J462" s="3" t="s">
         <v>248</v>
@@ -14390,7 +14390,7 @@
     </row>
     <row r="463" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>910</v>
+        <v>943</v>
       </c>
       <c r="J463" s="3" t="s">
         <v>248</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="464" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J464" s="3" t="s">
         <v>248</v>
@@ -14412,7 +14412,7 @@
     </row>
     <row r="465" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J465" s="3" t="s">
         <v>248</v>
@@ -14423,7 +14423,7 @@
     </row>
     <row r="466" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="J466" s="3" t="s">
         <v>248</v>
@@ -14434,7 +14434,7 @@
     </row>
     <row r="467" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="J467" s="3" t="s">
         <v>248</v>
@@ -14445,30 +14445,29 @@
     </row>
     <row r="468" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
+        <v>903</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L468" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
         <v>904</v>
       </c>
-      <c r="J468" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L468" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="469" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="75" t="s">
-        <v>931</v>
-      </c>
       <c r="J469" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L469" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="O469"/>
     </row>
     <row r="470" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="75" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="J470" s="3" t="s">
         <v>248</v>
@@ -14476,10 +14475,11 @@
       <c r="L470" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="O470"/>
     </row>
     <row r="471" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="75" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="J471" s="3" t="s">
         <v>248</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="472" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="75" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J472" s="3" t="s">
         <v>248</v>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="473" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="75" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J473" s="3" t="s">
         <v>248</v>
@@ -14512,7 +14512,7 @@
     </row>
     <row r="474" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="75" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J474" s="3" t="s">
         <v>248</v>
@@ -14523,7 +14523,7 @@
     </row>
     <row r="475" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="75" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J475" s="3" t="s">
         <v>248</v>
@@ -14534,7 +14534,7 @@
     </row>
     <row r="476" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="75" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J476" s="3" t="s">
         <v>248</v>
@@ -14545,7 +14545,7 @@
     </row>
     <row r="477" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="75" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J477" s="3" t="s">
         <v>248</v>
@@ -14556,7 +14556,7 @@
     </row>
     <row r="478" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="75" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J478" s="3" t="s">
         <v>248</v>
@@ -14567,7 +14567,7 @@
     </row>
     <row r="479" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="75" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J479" s="3" t="s">
         <v>248</v>
@@ -14578,7 +14578,7 @@
     </row>
     <row r="480" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="75" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J480" s="3" t="s">
         <v>248</v>
@@ -14586,11 +14586,10 @@
       <c r="L480" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="O480"/>
     </row>
     <row r="481" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="75" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J481" s="3" t="s">
         <v>248</v>
@@ -14602,70 +14601,82 @@
     </row>
     <row r="482" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="75" t="s">
+        <v>942</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L482" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O482"/>
+    </row>
+    <row r="483" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="75" t="s">
         <v>945</v>
       </c>
-      <c r="J482" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="O482"/>
-    </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A483" t="s">
-        <v>240</v>
-      </c>
+      <c r="J483" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O483"/>
     </row>
     <row r="484" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="485" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="488" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>857</v>
+        <v>297</v>
       </c>
     </row>
     <row r="490" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="493" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="494" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
         <v>862</v>
       </c>
     </row>
@@ -14684,7 +14695,7 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C1 N74:XFD74 M75:XFD78 J1:XFD1 D26:D29 E40:I42 E26:I26 F8:I8 E9 D16:I17 G15:I15 C15:E15 D13:G13 D14:I14 D27:I39 H140:I140 J116:J121 L116:XFD121 L347:XFD347 L346:M346 O346:XFD346 J346:K347 C334:I365 J348:XFD365 C191:XFD202 C368:XFD372 C373:I373 K373:XFD373 K73:XFD73 J73:J78 K74:L78 J183:N183 P183:XFD183 J122:XFD142 C167:I202 C166:F166 J79:XFD86 D43:I44 C79:C86 N275:XFD278 J274:M280 J312:XFD345 C312:I332 O2:XFD2 A1:B2 C280:XFD286 C291:XFD311 C288:XFD289 J184:XFD202 A483:XFD488 O400:XFD400 C400:M400 C237:N237 P237:XFD237 C162:G165 C427:F427 C421:G426 C439:G443 E433:G433 C433 D434:G435 E436:G436 C436 D437:G437 F438:G438 C438:D438 A489:A494 C262:XFD273 C444:I444 M444 C3:C44 C445:XFD452 A495:XFD1048576 A93:XFD93 J109:XFD115 C87:XFD108 C238:XFD260 C233:XFD236 C453:N454 P453:XFD454 C401:XFD420 C278:D278 F278:I278 C275:I277 C374:XFD390 C391:G391 J391:XFD391 C392:XFD399 C144:I161 J144:XFD182 C143:XFD143 C141:I142 C109:I139 J3:XFD44 P469:XFD469 C483:XFD494 P481:XFD482 K454:K468 C455:XFD467 J468:XFD468 C468:I482 M469:N469 M470:XFD480 M481:N482 J469:L482 N421:XFD444 J424:M430 H428:I443 D48:I86 C48:C72 J48:XFD72 C45:XFD47 C428:G432 J425:XFD443">
+  <conditionalFormatting sqref="C1 N74:XFD74 M75:XFD78 J1:XFD1 D26:D29 E40:I42 E26:I26 F8:I8 E9 D16:I17 G15:I15 C15:E15 D13:G13 D14:I14 D27:I39 H140:I140 J116:J121 L116:XFD121 L348:XFD348 L347:M347 O347:XFD347 J347:K348 C335:I366 J349:XFD366 C192:XFD203 C369:XFD373 C374:I374 K374:XFD374 K73:XFD73 J73:J78 K74:L78 J184:N184 P184:XFD184 J122:XFD142 C168:I203 C167:F167 J79:XFD86 D43:I44 C79:C86 N276:XFD279 J275:M281 J313:XFD346 C313:I333 O2:XFD2 A1:B2 C281:XFD287 C292:XFD312 C289:XFD290 J185:XFD203 A484:XFD489 O401:XFD401 C401:M401 C238:N238 P238:XFD238 C163:G166 C428:F428 C422:G427 C440:G444 E434:G434 C434 D435:G436 E437:G437 C437 D438:G438 F439:G439 C439:D439 A490:A495 C263:XFD274 C445:I445 M445 C3:C44 C446:XFD453 A496:XFD1048576 A93:XFD93 J109:XFD115 C87:XFD108 C239:XFD261 C234:XFD237 C454:N455 P454:XFD455 C402:XFD421 C279:D279 F279:I279 C276:I278 C375:XFD391 C392:G392 J392:XFD392 C393:XFD400 C141:I142 C109:I139 J3:XFD44 P470:XFD470 C484:XFD495 P482:XFD483 K455:K469 C456:XFD468 J469:XFD469 C469:I483 M470:N470 M471:XFD481 M482:N483 J470:L483 N422:XFD445 J425:M431 H429:I444 D48:I86 C48:C72 J48:XFD72 C45:XFD47 C429:G433 J426:XFD444 J157:XFD183 C157:I162 C143:XFD156">
     <cfRule type="cellIs" dxfId="354" priority="78" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14695,7 +14706,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:I11 E12:I12 E18:I25 D241:I241 D3:I7">
+  <conditionalFormatting sqref="D9:I11 E12:I12 E18:I25 D242:I242 D3:I7">
     <cfRule type="cellIs" dxfId="351" priority="137" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14735,7 +14746,7 @@
       <formula>"On"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C261:XFD261">
+  <conditionalFormatting sqref="C262:XFD262">
     <cfRule type="cellIs" dxfId="343" priority="115" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14743,7 +14754,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N346">
+  <conditionalFormatting sqref="N347">
     <cfRule type="cellIs" dxfId="341" priority="113" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14751,7 +14762,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C366:I367 N366:XFD367">
+  <conditionalFormatting sqref="C367:I368 N367:XFD368">
     <cfRule type="cellIs" dxfId="339" priority="110" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14759,7 +14770,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J366:M366 M367">
+  <conditionalFormatting sqref="J367:M367 M368">
     <cfRule type="cellIs" dxfId="337" priority="108" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14767,7 +14778,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D203:I208 N203:XFD208">
+  <conditionalFormatting sqref="D204:I209 N204:XFD209">
     <cfRule type="cellIs" dxfId="335" priority="105" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14775,7 +14786,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C209:I214 N209:XFD214">
+  <conditionalFormatting sqref="C210:I215 N210:XFD215">
     <cfRule type="cellIs" dxfId="333" priority="102" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14783,7 +14794,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C215:I220 N215:XFD220">
+  <conditionalFormatting sqref="C216:I221 N216:XFD221">
     <cfRule type="cellIs" dxfId="331" priority="99" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14791,7 +14802,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C221:I226 N221:XFD226">
+  <conditionalFormatting sqref="C222:I227 N222:XFD227">
     <cfRule type="cellIs" dxfId="329" priority="96" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14799,7 +14810,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C227:I232 N227:XFD232">
+  <conditionalFormatting sqref="C228:I233 N228:XFD233">
     <cfRule type="cellIs" dxfId="327" priority="93" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14807,7 +14818,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C203:C208">
+  <conditionalFormatting sqref="C204:C209">
     <cfRule type="cellIs" dxfId="325" priority="91" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14815,7 +14826,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J203:M208">
+  <conditionalFormatting sqref="J204:M209">
     <cfRule type="cellIs" dxfId="323" priority="89" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14823,7 +14834,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J209:M214">
+  <conditionalFormatting sqref="J210:M215">
     <cfRule type="cellIs" dxfId="321" priority="87" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14831,7 +14842,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J215:M220">
+  <conditionalFormatting sqref="J216:M221">
     <cfRule type="cellIs" dxfId="319" priority="85" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14839,7 +14850,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J221:M226">
+  <conditionalFormatting sqref="J222:M227">
     <cfRule type="cellIs" dxfId="317" priority="83" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14847,7 +14858,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J227:M232">
+  <conditionalFormatting sqref="J228:M233">
     <cfRule type="cellIs" dxfId="315" priority="81" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14855,7 +14866,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J367:L367">
+  <conditionalFormatting sqref="J368:L368">
     <cfRule type="cellIs" dxfId="313" priority="79" operator="equal">
       <formula>"On"</formula>
     </cfRule>
@@ -14863,7 +14874,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C274:I274 N274:XFD274">
+  <conditionalFormatting sqref="C275:I275 N275:XFD275">
     <cfRule type="cellIs" dxfId="311" priority="71" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14874,7 +14885,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N279:XFD286 N291:XFD308 C291:I308 N288:XFD289 C288:I289 C279:I286">
+  <conditionalFormatting sqref="N280:XFD287 N292:XFD309 C292:I309 N289:XFD290 C289:I290 C280:I287">
     <cfRule type="cellIs" dxfId="308" priority="65" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14885,7 +14896,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C290:XFD290">
+  <conditionalFormatting sqref="C291:XFD291">
     <cfRule type="cellIs" dxfId="305" priority="62" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14896,7 +14907,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C290:I290 N290:XFD290">
+  <conditionalFormatting sqref="C291:I291 N291:XFD291">
     <cfRule type="cellIs" dxfId="302" priority="59" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14907,7 +14918,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C287:XFD287">
+  <conditionalFormatting sqref="C288:XFD288">
     <cfRule type="cellIs" dxfId="299" priority="56" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14918,7 +14929,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C287:I287 N287:XFD287">
+  <conditionalFormatting sqref="C288:I288 N288:XFD288">
     <cfRule type="cellIs" dxfId="296" priority="53" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14929,7 +14940,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H162:I162 H164:I165">
+  <conditionalFormatting sqref="H163:I163 H165:I166">
     <cfRule type="cellIs" dxfId="293" priority="38" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14940,7 +14951,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H163:I163">
+  <conditionalFormatting sqref="H164:I164">
     <cfRule type="cellIs" dxfId="290" priority="35" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14951,7 +14962,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J421:M421">
+  <conditionalFormatting sqref="J422:M422">
     <cfRule type="cellIs" dxfId="287" priority="32" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14962,7 +14973,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J422:M422">
+  <conditionalFormatting sqref="J423:M423">
     <cfRule type="cellIs" dxfId="284" priority="26" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14973,7 +14984,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J423:M423">
+  <conditionalFormatting sqref="J424:M424">
     <cfRule type="cellIs" dxfId="281" priority="23" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14984,7 +14995,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H421 H425:I426">
+  <conditionalFormatting sqref="H422 H426:I427">
     <cfRule type="cellIs" dxfId="278" priority="14" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -14995,7 +15006,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H423:I424 H422">
+  <conditionalFormatting sqref="H424:I425 H423">
     <cfRule type="cellIs" dxfId="275" priority="11" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -15006,12 +15017,12 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D247:I257">
+  <conditionalFormatting sqref="D248:I258">
     <cfRule type="cellIs" dxfId="272" priority="10" operator="equal">
       <formula>"On"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E278">
+  <conditionalFormatting sqref="E279">
     <cfRule type="cellIs" dxfId="271" priority="7" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -15022,7 +15033,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I422">
+  <conditionalFormatting sqref="I423">
     <cfRule type="cellIs" dxfId="268" priority="4" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>
@@ -15033,7 +15044,7 @@
       <formula>"ENB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I421">
+  <conditionalFormatting sqref="I422">
     <cfRule type="cellIs" dxfId="265" priority="1" operator="equal">
       <formula>"MAP"</formula>
     </cfRule>

--- a/UserInterface/Scripts/GUI_Matrix_DSX.xlsx
+++ b/UserInterface/Scripts/GUI_Matrix_DSX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducth\Downloads\DSX_Projects_T6_ALL\UserInterface\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1677B41E-C881-464A-B7B3-DD34696190B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10428CDC-40FF-4A05-B0C7-320C1D75FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="1000" xr2:uid="{8D68E08B-6EC2-4A82-8712-659C61C6461D}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="968">
   <si>
     <t>Name</t>
   </si>
@@ -7711,9 +7711,9 @@
   <dimension ref="A1:Q495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2260" topLeftCell="A143" activePane="bottomLeft"/>
+      <pane ySplit="2260" topLeftCell="A128" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:L2"/>
-      <selection pane="bottomLeft" activeCell="K156" sqref="K156"/>
+      <selection pane="bottomLeft" activeCell="L156" sqref="L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10136,6 +10136,9 @@
         <v>967</v>
       </c>
       <c r="J156" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L156" s="3" t="s">
         <v>248</v>
       </c>
     </row>
